--- a/budget/TERN_KI_India_Reduced_Budget_22032023.xlsx
+++ b/budget/TERN_KI_India_Reduced_Budget_22032023.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abassi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martin/Documents/trauma-life-support-training-effectiveness-research-network/atls-vs-standard-care-trial/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8744B2B-91F1-451D-A895-D7FBCBF57A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FADCEAE-FF95-904F-8A0D-48F1EFF483D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21168" yWindow="-100" windowWidth="21467" windowHeight="11576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TERN_KI Budget" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -254,13 +254,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -294,9 +288,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -306,6 +297,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -624,917 +624,921 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.296875" customWidth="1"/>
-    <col min="3" max="3" width="13.59765625" customWidth="1"/>
-    <col min="4" max="8" width="18.19921875" customWidth="1"/>
-    <col min="9" max="9" width="13.8984375" customWidth="1"/>
-    <col min="10" max="10" width="22.59765625" customWidth="1"/>
-    <col min="11" max="11" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="8" width="18.1640625" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" ht="31.05" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="31.05" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>150000</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <f t="shared" ref="E3:H4" si="0">D3*1.025</f>
         <v>153750</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <f t="shared" si="0"/>
         <v>157593.75</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="6">
         <f t="shared" si="0"/>
         <v>161533.59375</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="6">
         <f t="shared" si="0"/>
         <v>165571.93359375</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="6">
         <f>(C3*D3*12)+(C3*E3*12)+(C3*F3*12)+(C3*G3*12)+(C3*H3*12)</f>
         <v>9461391.328125</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="6">
         <f>I3/7</f>
         <v>1351627.3325892857</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="6">
         <f>I3/5*2</f>
         <v>3784556.53125</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="6">
         <f>K3/7</f>
         <v>540650.93303571432</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="31.05" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+    <row r="4" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>65000</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <f t="shared" si="0"/>
         <v>66625</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <f t="shared" si="0"/>
         <v>68290.625</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="6">
         <f t="shared" si="0"/>
         <v>69997.890625</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="6">
         <f t="shared" si="0"/>
         <v>71747.837890625</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="6">
         <f>(C4*D4*12)+(C4*E4*12)+(C4*F4*12)+(C4*G4*12)+(C4*H4*12)</f>
         <v>4099936.2421875</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="6">
         <f>I4/7</f>
         <v>585705.17745535716</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="6">
         <f t="shared" ref="K4:K5" si="1">I4/5*2</f>
         <v>1639974.496875</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="6">
         <f t="shared" ref="L4:L5" si="2">K4/7</f>
         <v>234282.07098214285</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="31.05" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+    <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="10">
-        <v>5</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12">
+      <c r="C5" s="8">
+        <v>10</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10">
         <v>40000</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <f>E5*1.025</f>
         <v>41000</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <f>F5*1.025</f>
         <v>42024.999999999993</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="10">
         <f>G5*1.025</f>
         <v>43075.624999999985</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="6">
         <f>(C5*E5*12)+(C5*F5*12)+(C5*G5*12)+(C5*H5*12)</f>
-        <v>9966037.5</v>
-      </c>
-      <c r="J5" s="8">
+        <v>19932075</v>
+      </c>
+      <c r="J5" s="6">
         <f>I5/7</f>
-        <v>1423719.642857143</v>
-      </c>
-      <c r="K5" s="8">
+        <v>2847439.2857142859</v>
+      </c>
+      <c r="K5" s="6">
         <f t="shared" si="1"/>
-        <v>3986415</v>
-      </c>
-      <c r="L5" s="8">
+        <v>7972830</v>
+      </c>
+      <c r="L5" s="6">
         <f t="shared" si="2"/>
-        <v>569487.85714285716</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+        <v>1138975.7142857143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="13">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="11">
         <f>SUM(I3:I5)</f>
-        <v>23527365.0703125</v>
-      </c>
-      <c r="J6" s="13">
+        <v>33493402.5703125</v>
+      </c>
+      <c r="J6" s="11">
         <f>I6/7</f>
-        <v>3361052.1529017859</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="13">
+        <v>4784771.7957589282</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="11">
         <f>SUM(L3:L5)</f>
-        <v>1344420.8611607142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+        <v>1913908.7183035715</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.55" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="1:12" ht="31.05" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>1</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>30</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>40000</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="12">
         <v>40000</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="12">
         <v>40000</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="12">
         <v>40000</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="6">
         <f>(D9*C9)+(E9*C9)+(F9*C9)+(G9*C9)</f>
         <v>4800000</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="6">
         <f>I9/7</f>
         <v>685714.28571428568</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="6">
         <f>I9/3</f>
         <v>1600000</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="6">
         <f t="shared" ref="L9:L10" si="3">K9/7</f>
         <v>228571.42857142858</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="31.05" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+    <row r="10" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
         <v>2</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="15">
         <v>120000</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="15">
         <v>120000</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="15">
         <v>120000</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="15">
         <v>120000</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="6">
         <f>SUM(D10:H10)</f>
         <v>480000</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="6">
         <f>I10/7</f>
         <v>68571.428571428565</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="6">
         <f>I10/3</f>
         <v>160000</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="6">
         <f t="shared" si="3"/>
         <v>22857.142857142859</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="62.05" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+    <row r="11" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>3</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="15">
         <v>400000</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="15">
         <f>D11</f>
         <v>400000</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="6">
         <f>I11/7</f>
         <v>57142.857142857145</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="6">
         <f>I11</f>
         <v>400000</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="6">
         <f>J11</f>
         <v>57142.857142857145</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="13">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="11">
         <f>SUM(I9:I11)</f>
         <v>5680000</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="11">
         <f>I12/7</f>
         <v>811428.57142857148</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="13">
+      <c r="K12" s="6"/>
+      <c r="L12" s="11">
         <f>SUM(L9:L11)</f>
         <v>308571.42857142858</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="14.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.55" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18" t="s">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-    </row>
-    <row r="15" spans="1:12" ht="46.55" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="5">
         <v>10</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="6">
         <v>70000</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="6">
         <v>70000</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="6">
         <v>70000</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="6">
         <v>70000</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="6">
         <v>70000</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="6">
         <f>(D15*C15)+(E15*C15)+(F15*C15)+(G15*C15)+(H15*C15)</f>
         <v>3500000</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="6">
         <f>I15/7</f>
         <v>500000</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="6">
         <f>I15/5*2</f>
         <v>1400000</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="6">
         <f t="shared" ref="L15:L16" si="4">K15/7</f>
         <v>200000</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.55" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+    <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="5">
         <v>60</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <v>4000</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="6">
         <v>4000</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="6">
         <v>4000</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="6">
         <v>4000</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="6">
         <v>4000</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="6">
         <f>(D16*C16)+(E16*C16)+(F16*C16)+(G16*C16)+(H16*C16)</f>
         <v>1200000</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="6">
         <f>I16/7</f>
         <v>171428.57142857142</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="6">
         <f>I16/5*2</f>
         <v>480000</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="6">
         <f t="shared" si="4"/>
         <v>68571.428571428565</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="14.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="13">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="11">
         <f>SUM(I15:I16)</f>
         <v>4700000</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="11">
         <f>I17/7</f>
         <v>671428.57142857148</v>
       </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="13">
+      <c r="K17" s="6"/>
+      <c r="L17" s="11">
         <f>SUM(L15:L16)</f>
         <v>268571.42857142858</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="14.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.55" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-    </row>
-    <row r="20" spans="1:12" ht="46.55" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
         <v>1</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12">
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10">
         <f>100*60000</f>
         <v>6000000</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="10">
         <f>100*60000</f>
         <v>6000000</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="10">
         <f>100*60000</f>
         <v>6000000</v>
       </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="8">
+      <c r="H20" s="10"/>
+      <c r="I20" s="6">
         <f>SUM(E20:H20)</f>
         <v>18000000</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="6">
         <f>I20/7</f>
         <v>2571428.5714285714</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="6">
         <f>I20/3</f>
         <v>6000000</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="6">
         <f>K20/7</f>
         <v>857142.85714285716</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="31.05" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
+    <row r="21" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
         <v>2</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="5">
         <v>1</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="15">
         <v>200000</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="15">
         <v>200000</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="15">
         <v>200000</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="15">
         <v>200000</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="6">
         <f>SUM(D21:H21)</f>
         <v>800000</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="6">
         <f>I21/7</f>
         <v>114285.71428571429</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="6">
         <f>I21/2</f>
         <v>400000</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="6">
         <f>K21/7</f>
         <v>57142.857142857145</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="13">
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="11">
         <f>SUM(I20:I21)</f>
         <v>18800000</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="11">
         <f>I22/7</f>
         <v>2685714.2857142859</v>
       </c>
-      <c r="K22" s="8"/>
-      <c r="L22" s="13">
+      <c r="K22" s="6"/>
+      <c r="L22" s="11">
         <f>SUM(L20:L21)</f>
         <v>914285.71428571432</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.55" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-    </row>
-    <row r="25" spans="1:12" ht="31.05" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
         <v>1</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="6">
         <f>(I22+I17+I12+I6)*0.15</f>
-        <v>7906104.7605468743</v>
-      </c>
-      <c r="J25" s="8">
+        <v>9401010.3855468743</v>
+      </c>
+      <c r="J25" s="6">
         <f>I25/7</f>
-        <v>1129443.5372209821</v>
-      </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8">
+        <v>1343001.4836495535</v>
+      </c>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6">
         <f>(L22+L17+L12+L6)*0.15</f>
-        <v>425377.4148883929</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+        <v>510800.59345982148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="13">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="11">
         <f>I25</f>
-        <v>7906104.7605468743</v>
-      </c>
-      <c r="J26" s="8">
+        <v>9401010.3855468743</v>
+      </c>
+      <c r="J26" s="6">
         <f>I26/7</f>
-        <v>1129443.5372209821</v>
-      </c>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-    </row>
-    <row r="27" spans="1:12" ht="14.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+        <v>1343001.4836495535</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="13">
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="11">
         <f>I26+I22+I17+I12+I6</f>
-        <v>60613469.830859378</v>
-      </c>
-      <c r="J27" s="13">
+        <v>72074412.955859378</v>
+      </c>
+      <c r="J27" s="11">
         <f>I27/7</f>
-        <v>8659067.1186941974</v>
-      </c>
-      <c r="K27" s="8"/>
-      <c r="L27" s="13">
+        <v>10296344.707979912</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="11">
         <f>(L25+L22+L17+L12+L6)</f>
-        <v>3261226.8474776787</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+        <v>3916137.8831919646</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="J29" s="21"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="J30" s="21"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D31" s="20"/>
-      <c r="E31" s="21"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="J29" s="18"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="J30" s="18"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D31" s="17"/>
+      <c r="E31" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="A28:H28"/>
     <mergeCell ref="A17:H17"/>
@@ -1542,10 +1546,6 @@
     <mergeCell ref="A22:H22"/>
     <mergeCell ref="A23:J23"/>
     <mergeCell ref="A26:H26"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/budget/TERN_KI_India_Reduced_Budget_22032023.xlsx
+++ b/budget/TERN_KI_India_Reduced_Budget_22032023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martin/Documents/trauma-life-support-training-effectiveness-research-network/atls-vs-standard-care-trial/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FADCEAE-FF95-904F-8A0D-48F1EFF483D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75E4804D-6C92-9A41-830E-02D906AFF45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,13 +299,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -625,7 +625,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -645,13 +645,13 @@
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
@@ -793,7 +793,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="10">
@@ -813,19 +813,19 @@
       </c>
       <c r="I5" s="6">
         <f>(C5*E5*12)+(C5*F5*12)+(C5*G5*12)+(C5*H5*12)</f>
-        <v>19932075</v>
+        <v>9966037.5</v>
       </c>
       <c r="J5" s="6">
         <f>I5/7</f>
-        <v>2847439.2857142859</v>
+        <v>1423719.642857143</v>
       </c>
       <c r="K5" s="6">
         <f t="shared" si="1"/>
-        <v>7972830</v>
+        <v>3986415</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" si="2"/>
-        <v>1138975.7142857143</v>
+        <v>569487.85714285716</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -841,31 +841,31 @@
       <c r="H6" s="19"/>
       <c r="I6" s="11">
         <f>SUM(I3:I5)</f>
-        <v>33493402.5703125</v>
+        <v>23527365.0703125</v>
       </c>
       <c r="J6" s="11">
         <f>I6/7</f>
-        <v>4784771.7957589282</v>
+        <v>3361052.1529017859</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="11">
         <f>SUM(L3:L5)</f>
-        <v>1913908.7183035715</v>
+        <v>1344420.8611607142</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
@@ -1030,16 +1030,16 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="11">
         <f>SUM(I9:I11)</f>
         <v>5680000</v>
@@ -1055,10 +1055,10 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="21"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1181,16 +1181,16 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
       <c r="I17" s="11">
         <f>SUM(I15:I16)</f>
         <v>4700000</v>
@@ -1206,18 +1206,18 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
     </row>
@@ -1337,16 +1337,16 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
       <c r="I22" s="11">
         <f>SUM(I20:I21)</f>
         <v>18800000</v>
@@ -1362,18 +1362,18 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
     </row>
@@ -1438,76 +1438,76 @@
       </c>
       <c r="I25" s="6">
         <f>(I22+I17+I12+I6)*0.15</f>
-        <v>9401010.3855468743</v>
+        <v>7906104.7605468743</v>
       </c>
       <c r="J25" s="6">
         <f>I25/7</f>
-        <v>1343001.4836495535</v>
+        <v>1129443.5372209821</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="6">
         <f>(L22+L17+L12+L6)*0.15</f>
-        <v>510800.59345982148</v>
+        <v>425377.4148883929</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
       <c r="I26" s="11">
         <f>I25</f>
-        <v>9401010.3855468743</v>
+        <v>7906104.7605468743</v>
       </c>
       <c r="J26" s="6">
         <f>I26/7</f>
-        <v>1343001.4836495535</v>
+        <v>1129443.5372209821</v>
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
       <c r="I27" s="11">
         <f>I26+I22+I17+I12+I6</f>
-        <v>72074412.955859378</v>
+        <v>60613469.830859378</v>
       </c>
       <c r="J27" s="11">
         <f>I27/7</f>
-        <v>10296344.707979912</v>
+        <v>8659067.1186941974</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="11">
         <f>(L25+L22+L17+L12+L6)</f>
-        <v>3916137.8831919646</v>
+        <v>3261226.8474776787</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
       <c r="I28" s="7"/>
       <c r="J28" s="16"/>
       <c r="K28" s="6"/>
@@ -1535,17 +1535,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A27:H27"/>
     <mergeCell ref="A28:H28"/>
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="A18:J18"/>
     <mergeCell ref="A22:H22"/>
     <mergeCell ref="A23:J23"/>
     <mergeCell ref="A26:H26"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A27:H27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
